--- a/Report1/DATA/energy-mQ.xlsx
+++ b/Report1/DATA/energy-mQ.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="1680" windowWidth="27760" windowHeight="16380" tabRatio="500"/>
+    <workbookView xWindow="32360" yWindow="1300" windowWidth="27760" windowHeight="16380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Alpha Quartz</t>
   </si>
@@ -44,31 +44,34 @@
     <t>Cooling</t>
   </si>
   <si>
-    <t>4000-50</t>
-  </si>
-  <si>
-    <t>4000-100</t>
-  </si>
-  <si>
-    <t>4000-150</t>
-  </si>
-  <si>
-    <t>5000-50</t>
-  </si>
-  <si>
-    <t>5000-100</t>
-  </si>
-  <si>
-    <t>5000-150</t>
-  </si>
-  <si>
-    <t>6000-50</t>
-  </si>
-  <si>
-    <t>6000-100</t>
-  </si>
-  <si>
-    <t>6000-150</t>
+    <t>A-Alpha Quartz</t>
+  </si>
+  <si>
+    <t>B-4000-50</t>
+  </si>
+  <si>
+    <t>C-4000-100</t>
+  </si>
+  <si>
+    <t>D-4000-150</t>
+  </si>
+  <si>
+    <t>E-5000-50</t>
+  </si>
+  <si>
+    <t>F-5000-100</t>
+  </si>
+  <si>
+    <t>G-5000-150</t>
+  </si>
+  <si>
+    <t>H-6000-50</t>
+  </si>
+  <si>
+    <t>I-6000-100</t>
+  </si>
+  <si>
+    <t>J-6000-150</t>
   </si>
 </sst>
 </file>
@@ -386,7 +389,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -410,7 +413,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -430,7 +433,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -450,7 +453,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -470,7 +473,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -490,7 +493,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -510,7 +513,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -530,7 +533,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -550,7 +553,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -570,7 +573,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -590,7 +593,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11">
         <v>0</v>
